--- a/04a.xlsx
+++ b/04a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB7FDC-CE42-4262-8C90-A744BCB1ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8703900-E1B7-4583-9E42-B2BEC5740832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3922" yWindow="1522" windowWidth="28231" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="4500" yWindow="3000" windowWidth="28800" windowHeight="16200" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入(1)" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
         <v>49.199999999999982</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">
@@ -5225,7 +5225,7 @@
         <v>49.175000000000011</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">

--- a/04a.xlsx
+++ b/04a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8703900-E1B7-4583-9E42-B2BEC5740832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754D2A1-8381-47F4-ADFF-0D3112AF0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3000" windowWidth="28800" windowHeight="16200" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="5542" yWindow="4777" windowWidth="28231" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入(1)" sheetId="1" r:id="rId1"/>
@@ -23979,11 +23979,11 @@
         <v>50.173611111110844</v>
       </c>
       <c r="E2" s="22">
-        <f>SUM(D2:D101)</f>
+        <f>SUM(D2:D11)</f>
         <v>2384.5555555555543</v>
       </c>
       <c r="F2" s="6">
-        <f>COUNT(D2:D101)</f>
+        <f>COUNT(D2:D11)</f>
         <v>10</v>
       </c>
       <c r="G2" s="19">
@@ -27342,7 +27342,7 @@
       <c r="B2" s="2">
         <v>134.5</v>
       </c>
-      <c r="C2" cm="1">
+      <c r="C2" s="1" cm="1">
         <f t="array" ref="C2:C11">B2:B11-$B$12</f>
         <v>-7.0833333333333144</v>
       </c>
@@ -27351,11 +27351,11 @@
         <v>50.173611111110844</v>
       </c>
       <c r="E2" s="22">
-        <f>SUM(D2:D101)</f>
+        <f>SUM(D2:D11)</f>
         <v>2384.5555555555543</v>
       </c>
       <c r="F2" s="6">
-        <f>COUNT(D2:D101)</f>
+        <f>COUNT(D2:D11)</f>
         <v>10</v>
       </c>
       <c r="G2" s="19">

--- a/04a.xlsx
+++ b/04a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754D2A1-8381-47F4-ADFF-0D3112AF0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBBBB8-90FE-4B95-83DF-6794766A19B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5542" yWindow="4777" windowWidth="28231" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
@@ -20670,7 +20670,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="22"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A3">
@@ -20681,6 +20681,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A4">
@@ -24006,6 +24007,7 @@
         <f t="shared" ref="D3:D11" si="1">C3^2</f>
         <v>82.506944444444613</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A4">
@@ -27376,6 +27378,7 @@
       <c r="D3" s="1">
         <v>82.506944444444613</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A4">
